--- a/ESPN sports website/IPL/Royal Challengers Bangalore/Josh Hazlewood.xlsx
+++ b/ESPN sports website/IPL/Royal Challengers Bangalore/Josh Hazlewood.xlsx
@@ -445,10 +445,10 @@
         <v>Josh Hazlewood</v>
       </c>
       <c r="C2" t="str">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" t="str">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -457,19 +457,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>100.00</v>
+        <v>27.27</v>
       </c>
       <c r="H2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>April 12, 2022</v>
+        <v>April 23, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Super Kings won by 23 runs</v>
+        <v>Sunrisers won by 9 wickets (with 72 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -480,10 +480,10 @@
         <v>Josh Hazlewood</v>
       </c>
       <c r="C3" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>50.00</v>
+        <v>100.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>Ahmedabad</v>
+        <v>DY Patil</v>
       </c>
       <c r="J3" t="str">
-        <v>May 27, 2022</v>
+        <v>April 12, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Royals won by 7 wickets (with 11 balls remaining)</v>
+        <v>Super Kings won by 23 runs</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         <v>Josh Hazlewood</v>
       </c>
       <c r="C5" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E5" t="str">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>27.27</v>
+        <v>50.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I5" t="str">
-        <v>Brabourne</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J5" t="str">
-        <v>April 23, 2022</v>
+        <v>May 27, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Sunrisers won by 9 wickets (with 72 balls remaining)</v>
+        <v>Royals won by 7 wickets (with 11 balls remaining)</v>
       </c>
     </row>
     <row r="6">
